--- a/data/trans_orig/P36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>126056</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106953</v>
+        <v>104320</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150854</v>
+        <v>149655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1310912173808028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1112251733463643</v>
+        <v>0.108486616256584</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1568795324872199</v>
+        <v>0.1556323624626011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -764,19 +764,19 @@
         <v>99784</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81956</v>
+        <v>80644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120570</v>
+        <v>120966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07539957516858016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06192842910991615</v>
+        <v>0.06093747307537211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09110647557875373</v>
+        <v>0.09140589230849515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -785,19 +785,19 @@
         <v>225840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199239</v>
+        <v>197404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>256973</v>
+        <v>256878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09883629388106596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08719479221361598</v>
+        <v>0.08639173816160821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1124612404182652</v>
+        <v>0.1124197497477442</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>188376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162983</v>
+        <v>163020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215322</v>
+        <v>215224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1958999406708244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1694928397303226</v>
+        <v>0.1695312590468114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2239219385963125</v>
+        <v>0.2238207810359535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -835,19 +835,19 @@
         <v>228924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203587</v>
+        <v>202345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259351</v>
+        <v>256782</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1729822687733424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.153836740126324</v>
+        <v>0.1528979980586765</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1959733969308609</v>
+        <v>0.1940326406608859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>386</v>
@@ -856,19 +856,19 @@
         <v>417300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>380907</v>
+        <v>381489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455888</v>
+        <v>460241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1826267146627195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1666997907729602</v>
+        <v>0.1669544098343381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1995142336825864</v>
+        <v>0.201419403207399</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>295351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>269232</v>
+        <v>267767</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>324091</v>
+        <v>325490</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.307147671929763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2799860248029412</v>
+        <v>0.2784618327392139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3370360508421881</v>
+        <v>0.3384902583423848</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>413</v>
@@ -906,19 +906,19 @@
         <v>443793</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>407810</v>
+        <v>408567</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>480995</v>
+        <v>481334</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3353436251282664</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3081539430972353</v>
+        <v>0.3087261488651218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3634544534591759</v>
+        <v>0.3637106414154057</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>688</v>
@@ -927,19 +927,19 @@
         <v>739144</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>694619</v>
+        <v>690583</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>787181</v>
+        <v>782494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3234779196526482</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3039922514928752</v>
+        <v>0.3022259470013136</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3445007023511985</v>
+        <v>0.3424495797667373</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>268384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>239244</v>
+        <v>240949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297737</v>
+        <v>296793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2791033943737857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2487993983772672</v>
+        <v>0.2505724993233526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3096296174872098</v>
+        <v>0.3086477894133667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>396</v>
@@ -977,19 +977,19 @@
         <v>427934</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>392748</v>
+        <v>396132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>466458</v>
+        <v>464948</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3233602932620789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.296772248356038</v>
+        <v>0.2993296461192841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3524698671200946</v>
+        <v>0.3513289475096524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>646</v>
@@ -998,19 +998,19 @@
         <v>696318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>653636</v>
+        <v>652205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>744151</v>
+        <v>744779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3047356585928536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2860563932011463</v>
+        <v>0.2854300815996439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3256693039147732</v>
+        <v>0.3259442522677529</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>83426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66996</v>
+        <v>66645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102227</v>
+        <v>103275</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08675777564482402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06967204321518776</v>
+        <v>0.06930720770450129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1063098672188919</v>
+        <v>0.1074002497767395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -1048,19 +1048,19 @@
         <v>122962</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104511</v>
+        <v>102017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145944</v>
+        <v>145434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09291423766773212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07897178333049359</v>
+        <v>0.07708687742618796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1102796137011953</v>
+        <v>0.1098946597751354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -1069,19 +1069,19 @@
         <v>206388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180776</v>
+        <v>179963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>236704</v>
+        <v>238059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09032341321071276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07911462511880803</v>
+        <v>0.07875872259226993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1035906921902187</v>
+        <v>0.104183780595666</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>329164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295212</v>
+        <v>295682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364732</v>
+        <v>366078</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1699384018829465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1524099584008435</v>
+        <v>0.1526527759862584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1883013696178273</v>
+        <v>0.1889958849126001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -1241,19 +1241,19 @@
         <v>210202</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>182235</v>
+        <v>183905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>236581</v>
+        <v>238666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1215568600235456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1053836075490033</v>
+        <v>0.1063496074128686</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1368111846145662</v>
+        <v>0.1380168914275366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>508</v>
@@ -1262,19 +1262,19 @@
         <v>539366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>496126</v>
+        <v>497165</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>584884</v>
+        <v>586257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1471181596847635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1353237756788352</v>
+        <v>0.135607288259663</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1595334951664694</v>
+        <v>0.1599082017078883</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>535989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>495572</v>
+        <v>497503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>582866</v>
+        <v>578790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.276716325726106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.255850085960503</v>
+        <v>0.2568469534218104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3009179171688153</v>
+        <v>0.2988136151843069</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>407</v>
@@ -1312,19 +1312,19 @@
         <v>438868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>399987</v>
+        <v>401708</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>479714</v>
+        <v>475464</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2537907897653805</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2313062760054262</v>
+        <v>0.2323019262623055</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2774111483554863</v>
+        <v>0.2749537926828803</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>910</v>
@@ -1333,19 +1333,19 @@
         <v>974857</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>916257</v>
+        <v>920384</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1031008</v>
+        <v>1028590</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2659029811521101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2499193575614918</v>
+        <v>0.2510450133990412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2812189609893787</v>
+        <v>0.2805594168539021</v>
       </c>
     </row>
     <row r="13">
@@ -1362,19 +1362,19 @@
         <v>655536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>613822</v>
+        <v>613764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>696987</v>
+        <v>697985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3384351168929284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3168993830568355</v>
+        <v>0.3168693560203721</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3598354723562193</v>
+        <v>0.3603508042153851</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>493</v>
@@ -1383,19 +1383,19 @@
         <v>528009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>487420</v>
+        <v>487400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>567998</v>
+        <v>566074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3053397138064166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2818678320993982</v>
+        <v>0.281855870352973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3284648935578381</v>
+        <v>0.3273521740262456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1119</v>
@@ -1404,19 +1404,19 @@
         <v>1183545</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1124768</v>
+        <v>1125296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1248114</v>
+        <v>1249383</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3228249257941108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3067929701954697</v>
+        <v>0.306937097849774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3404368442317735</v>
+        <v>0.3407829900602887</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>339103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>305521</v>
+        <v>302129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372740</v>
+        <v>376882</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1750696656309056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1577320055932405</v>
+        <v>0.1559810188506679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1924355821140152</v>
+        <v>0.1945736326954317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -1454,19 +1454,19 @@
         <v>414858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377382</v>
+        <v>380597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>453766</v>
+        <v>452040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2399062677057284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2182346073394219</v>
+        <v>0.2200935008673568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.262406108256232</v>
+        <v>0.261408051227105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -1475,19 +1475,19 @@
         <v>753961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>702640</v>
+        <v>705444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>809284</v>
+        <v>803475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2056513070129522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1916529104629756</v>
+        <v>0.192417685167971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2207411369864841</v>
+        <v>0.2191568274669501</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>77169</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>61331</v>
+        <v>60483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>95118</v>
+        <v>96586</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03984048986711333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03166331149516324</v>
+        <v>0.03122568289475404</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04910661693812494</v>
+        <v>0.0498645238271051</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>123</v>
@@ -1525,19 +1525,19 @@
         <v>137314</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>115873</v>
+        <v>115031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>163692</v>
+        <v>160436</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07940636869892889</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06700763033042685</v>
+        <v>0.0665205983013752</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09466056112234845</v>
+        <v>0.09277792852795791</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>198</v>
@@ -1546,19 +1546,19 @@
         <v>214483</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>186952</v>
+        <v>185995</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>243102</v>
+        <v>246038</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05850262635606345</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05099315841287596</v>
+        <v>0.05073232613886071</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06630877088924696</v>
+        <v>0.06710965929631124</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         <v>81136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>64091</v>
+        <v>62632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101439</v>
+        <v>101007</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1709896984419578</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1350692695253724</v>
+        <v>0.1319937096874815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2137778990332593</v>
+        <v>0.2128682899809838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -1718,19 +1718,19 @@
         <v>61993</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48259</v>
+        <v>49152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77665</v>
+        <v>78929</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.136263357123878</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1060759114422168</v>
+        <v>0.1080390225841841</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1707108530015341</v>
+        <v>0.1734888911270396</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1739,19 +1739,19 @@
         <v>143129</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121704</v>
+        <v>121397</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>168876</v>
+        <v>166794</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1539918341096344</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.130940496497025</v>
+        <v>0.1306107661953008</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1816925091044095</v>
+        <v>0.1794525113635907</v>
       </c>
     </row>
     <row r="19">
@@ -1768,19 +1768,19 @@
         <v>138998</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119796</v>
+        <v>120832</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161952</v>
+        <v>162161</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2929311164055683</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2524644023422014</v>
+        <v>0.2546479546851989</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3413067685358529</v>
+        <v>0.3417472432083814</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -1789,19 +1789,19 @@
         <v>123382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104471</v>
+        <v>103453</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>144261</v>
+        <v>146347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2711979716969697</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2296323939778431</v>
+        <v>0.2273935431517501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.317091399884492</v>
+        <v>0.321676411437295</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>236</v>
@@ -1810,19 +1810,19 @@
         <v>262380</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>234362</v>
+        <v>232257</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294058</v>
+        <v>290879</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2822931674812116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.25214875727118</v>
+        <v>0.2498844704601809</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3163760485313162</v>
+        <v>0.3129555526837577</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>158455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138422</v>
+        <v>137170</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180411</v>
+        <v>179680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3339358801891663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2917171691420333</v>
+        <v>0.2890805617897465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3802085980200881</v>
+        <v>0.3786682348270149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1860,19 +1860,19 @@
         <v>145215</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>125753</v>
+        <v>126105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166161</v>
+        <v>168020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3191884754694505</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2764107512033901</v>
+        <v>0.2771833601034118</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3652281722561498</v>
+        <v>0.3693146456003958</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>279</v>
@@ -1881,19 +1881,19 @@
         <v>303670</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>272938</v>
+        <v>272626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>335701</v>
+        <v>334672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3267173142485877</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2936533531021981</v>
+        <v>0.293317395985989</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3611795254178515</v>
+        <v>0.3600719327950643</v>
       </c>
     </row>
     <row r="21">
@@ -1910,19 +1910,19 @@
         <v>79992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>62639</v>
+        <v>61707</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98519</v>
+        <v>98951</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1685799708664159</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1320090779110125</v>
+        <v>0.1300455094477884</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2076246322501161</v>
+        <v>0.2085342570142318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>85</v>
@@ -1931,19 +1931,19 @@
         <v>93996</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76961</v>
+        <v>77131</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>115548</v>
+        <v>112405</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2066060021928296</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1691622768267897</v>
+        <v>0.1695375069805748</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2539783089040092</v>
+        <v>0.2470715212420691</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>154</v>
@@ -1952,19 +1952,19 @@
         <v>173988</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>148804</v>
+        <v>148042</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>203070</v>
+        <v>199170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1871929688687866</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1600976691519762</v>
+        <v>0.159277355129214</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2184819383168485</v>
+        <v>0.2142863745623194</v>
       </c>
     </row>
     <row r="22">
@@ -1981,19 +1981,19 @@
         <v>15926</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9246</v>
+        <v>9381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25418</v>
+        <v>25574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03356333409689161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01948479743107792</v>
+        <v>0.01976927892758019</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0535665732943442</v>
+        <v>0.05389587343923061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2002,19 +2002,19 @@
         <v>30365</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20475</v>
+        <v>21006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42203</v>
+        <v>43864</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06674419351687215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04500413598385494</v>
+        <v>0.04617095341637317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09276380114236837</v>
+        <v>0.09641578952785061</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -2023,19 +2023,19 @@
         <v>46291</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34671</v>
+        <v>34523</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62255</v>
+        <v>62441</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04980471529177968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03730204537254577</v>
+        <v>0.03714268096716912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06697958319181656</v>
+        <v>0.0671799326947128</v>
       </c>
     </row>
     <row r="23">
@@ -2174,19 +2174,19 @@
         <v>536356</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>493922</v>
+        <v>494001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>580396</v>
+        <v>580008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1590117315403153</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1464316180570011</v>
+        <v>0.146454922719333</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1720682093936351</v>
+        <v>0.1719532239990637</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>351</v>
@@ -2195,19 +2195,19 @@
         <v>371979</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>336258</v>
+        <v>338762</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>412397</v>
+        <v>415578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1060494812619117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09586560332162984</v>
+        <v>0.09657945493713424</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1175723857267135</v>
+        <v>0.1184793639770201</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>847</v>
@@ -2216,19 +2216,19 @@
         <v>908335</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>853079</v>
+        <v>854412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>970180</v>
+        <v>968573</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1320128095484281</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1239821747315087</v>
+        <v>0.124175831895718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1410010605287442</v>
+        <v>0.1407674260504885</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         <v>863362</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>812178</v>
+        <v>808703</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>916871</v>
+        <v>915315</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2559581985042115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2407838635479586</v>
+        <v>0.2397535869002111</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.271821678636413</v>
+        <v>0.2713603689452439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>728</v>
@@ -2266,19 +2266,19 @@
         <v>791174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>741644</v>
+        <v>739685</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>842557</v>
+        <v>843573</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2255599906717804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2114391384345445</v>
+        <v>0.2108807601044293</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2402089425139754</v>
+        <v>0.2404987129610197</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1532</v>
@@ -2287,19 +2287,19 @@
         <v>1654536</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1586072</v>
+        <v>1585575</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1733254</v>
+        <v>1729683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2404618999586105</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2305116716211573</v>
+        <v>0.230439466584722</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2519023879095352</v>
+        <v>0.2513833043275526</v>
       </c>
     </row>
     <row r="27">
@@ -2316,19 +2316,19 @@
         <v>1109341</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1055825</v>
+        <v>1052484</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1166742</v>
+        <v>1163845</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.328882755156604</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3130170851712113</v>
+        <v>0.3120265212262459</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3459003180618846</v>
+        <v>0.34504150137432</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1036</v>
@@ -2337,19 +2337,19 @@
         <v>1117017</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1061289</v>
+        <v>1063713</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1177463</v>
+        <v>1175665</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3184562621797666</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3025685532061423</v>
+        <v>0.3032593969333668</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3356891935555796</v>
+        <v>0.3351764390105477</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2086</v>
@@ -2358,19 +2358,19 @@
         <v>2226358</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2149283</v>
+        <v>2144616</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2305995</v>
+        <v>2299524</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3235675718127916</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3123659263448655</v>
+        <v>0.3116875352262389</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3351415686892982</v>
+        <v>0.3342010793615349</v>
       </c>
     </row>
     <row r="28">
@@ -2387,19 +2387,19 @@
         <v>687479</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>636415</v>
+        <v>643586</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>736102</v>
+        <v>733819</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2038146783380076</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1886758555486928</v>
+        <v>0.1908017400172343</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2182299217272314</v>
+        <v>0.2175529141519042</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>868</v>
@@ -2408,19 +2408,19 @@
         <v>936788</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>882604</v>
+        <v>877282</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>990445</v>
+        <v>989853</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2670737967343854</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.251626138297091</v>
+        <v>0.2501089814825161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2823712766839566</v>
+        <v>0.2822022339319326</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1503</v>
@@ -2429,19 +2429,19 @@
         <v>1624267</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1550768</v>
+        <v>1554699</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1690754</v>
+        <v>1708905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2360627039389101</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2253806711357376</v>
+        <v>0.2259520683810473</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2457256217189445</v>
+        <v>0.2483635831563366</v>
       </c>
     </row>
     <row r="29">
@@ -2458,19 +2458,19 @@
         <v>176521</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>151740</v>
+        <v>150051</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>204854</v>
+        <v>203144</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0523326364608615</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04498577220427673</v>
+        <v>0.04448525590970383</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06073239442031198</v>
+        <v>0.06022548722760164</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>267</v>
@@ -2479,19 +2479,19 @@
         <v>290641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>257850</v>
+        <v>257267</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>324771</v>
+        <v>326382</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08286046915215589</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07351192787745035</v>
+        <v>0.07334564452812327</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09259057344375557</v>
+        <v>0.09305003467561539</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>438</v>
@@ -2500,19 +2500,19 @@
         <v>467162</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>420034</v>
+        <v>427491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>508831</v>
+        <v>514264</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0678950147412597</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06104566290469936</v>
+        <v>0.06212940849776115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07395094768694864</v>
+        <v>0.07474050343395829</v>
       </c>
     </row>
     <row r="30">
@@ -2890,19 +2890,19 @@
         <v>109202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91528</v>
+        <v>93085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131834</v>
+        <v>129258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1485184432258069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1244808334789106</v>
+        <v>0.1265981630780588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1792984014245626</v>
+        <v>0.1757949706745532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -2911,19 +2911,19 @@
         <v>92979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74247</v>
+        <v>73049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111743</v>
+        <v>111907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09501496923397969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07587359743477487</v>
+        <v>0.07464895002052714</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1141905199014024</v>
+        <v>0.1143577266199203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>194</v>
@@ -2932,19 +2932,19 @@
         <v>202181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176992</v>
+        <v>177177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229329</v>
+        <v>230041</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1179691420839013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1032719339961477</v>
+        <v>0.103379812083055</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1338094221718847</v>
+        <v>0.1342249539504956</v>
       </c>
     </row>
     <row r="5">
@@ -2961,19 +2961,19 @@
         <v>167404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145200</v>
+        <v>146485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>192322</v>
+        <v>189800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2276744271612397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1974767337565999</v>
+        <v>0.1992248620869232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2615636170081729</v>
+        <v>0.2581339282886562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -2982,19 +2982,19 @@
         <v>230763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>204095</v>
+        <v>200018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256294</v>
+        <v>256646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2358168211224964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2085645279643351</v>
+        <v>0.2043981729007879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2619076773111767</v>
+        <v>0.2622665373627601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -3003,19 +3003,19 @@
         <v>398167</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>366434</v>
+        <v>363548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435329</v>
+        <v>430909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2323235541539367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2138078937669937</v>
+        <v>0.2121241663198048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2540070914286956</v>
+        <v>0.2514284772624061</v>
       </c>
     </row>
     <row r="6">
@@ -3032,19 +3032,19 @@
         <v>225181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199671</v>
+        <v>201202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>248555</v>
+        <v>250830</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3062530094660931</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2715593310360958</v>
+        <v>0.2736413726487233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3380420466272384</v>
+        <v>0.3411362134900379</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>300</v>
@@ -3053,19 +3053,19 @@
         <v>334382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>306167</v>
+        <v>302182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>366761</v>
+        <v>364299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3417054540219737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3128729886776863</v>
+        <v>0.3088007023737052</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3747940247694048</v>
+        <v>0.3722781379807926</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>529</v>
@@ -3074,19 +3074,19 @@
         <v>559563</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>523183</v>
+        <v>525888</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>602466</v>
+        <v>599874</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3264955717550343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3052685667553523</v>
+        <v>0.3068467402095392</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3515287701769264</v>
+        <v>0.3500163497314732</v>
       </c>
     </row>
     <row r="7">
@@ -3103,19 +3103,19 @@
         <v>175580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151215</v>
+        <v>152412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198441</v>
+        <v>199607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2387948262305555</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.205657229980165</v>
+        <v>0.2072852832560057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2698861842190808</v>
+        <v>0.2714719709439306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>221</v>
@@ -3124,19 +3124,19 @@
         <v>250169</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220791</v>
+        <v>221062</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>277679</v>
+        <v>278759</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2556482521764161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2256268945861271</v>
+        <v>0.2259032517508244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2837606131872757</v>
+        <v>0.2848643322634039</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>399</v>
@@ -3145,19 +3145,19 @@
         <v>425750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>392334</v>
+        <v>391446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>462136</v>
+        <v>463741</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2484177599595232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2289204586338866</v>
+        <v>0.2284025003270841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2696485095532032</v>
+        <v>0.2705851167384892</v>
       </c>
     </row>
     <row r="8">
@@ -3174,19 +3174,19 @@
         <v>57910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44964</v>
+        <v>45220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73171</v>
+        <v>72919</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07875929391630486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06115225875033878</v>
+        <v>0.06150001348357636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09951458069483632</v>
+        <v>0.0991723611852504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -3195,19 +3195,19 @@
         <v>70275</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54105</v>
+        <v>55390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87942</v>
+        <v>90288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07181450344513407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05528975767129299</v>
+        <v>0.05660331125046638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08986828917747168</v>
+        <v>0.09226518289483225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -3216,19 +3216,19 @@
         <v>128185</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>106861</v>
+        <v>105273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>151063</v>
+        <v>149069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0747939720476045</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06235160864126427</v>
+        <v>0.06142529641549872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08814301493306256</v>
+        <v>0.08697920502461196</v>
       </c>
     </row>
     <row r="9">
@@ -3367,19 +3367,19 @@
         <v>343846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310798</v>
+        <v>310167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>384824</v>
+        <v>380047</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1695686594482997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1532711593519469</v>
+        <v>0.1529598949410602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1897772012579285</v>
+        <v>0.1874210970446369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3388,19 +3388,19 @@
         <v>246233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219139</v>
+        <v>214765</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>275022</v>
+        <v>274401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1259689520238787</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.112108095600915</v>
+        <v>0.1098702974834423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.140697047287946</v>
+        <v>0.1403791969999217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -3409,19 +3409,19 @@
         <v>590079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>542414</v>
+        <v>548449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636460</v>
+        <v>638912</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1481686995366451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1361999760758602</v>
+        <v>0.1377154551670622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.159814932064012</v>
+        <v>0.1604305427801286</v>
       </c>
     </row>
     <row r="12">
@@ -3438,19 +3438,19 @@
         <v>567530</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>527957</v>
+        <v>523795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>610500</v>
+        <v>607353</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2798793081379775</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2603634344810591</v>
+        <v>0.2583110364491137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3010697384517677</v>
+        <v>0.2995179017011645</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>528</v>
@@ -3459,19 +3459,19 @@
         <v>552016</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>512036</v>
+        <v>511694</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>592577</v>
+        <v>593613</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2824024246611877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2619494927124234</v>
+        <v>0.2617744678497904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3031530071183316</v>
+        <v>0.303682936738434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1068</v>
@@ -3480,19 +3480,19 @@
         <v>1119546</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1060789</v>
+        <v>1061526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1178483</v>
+        <v>1177072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2811177245320033</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2663638144254798</v>
+        <v>0.266548750822507</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2959166827434148</v>
+        <v>0.2955623542188953</v>
       </c>
     </row>
     <row r="13">
@@ -3509,19 +3509,19 @@
         <v>741464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>693445</v>
+        <v>700038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>788730</v>
+        <v>785749</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3656550404661334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3419745175783694</v>
+        <v>0.3452260684275409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.388964738234676</v>
+        <v>0.3874947225859947</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>703</v>
@@ -3530,19 +3530,19 @@
         <v>730190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>689949</v>
+        <v>686493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>777105</v>
+        <v>774275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3735533201193661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3529669471989011</v>
+        <v>0.3511988918390514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3975543044956288</v>
+        <v>0.3961067815571839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1404</v>
@@ -3551,19 +3551,19 @@
         <v>1471653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1412757</v>
+        <v>1406442</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1532516</v>
+        <v>1529953</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.369531737763775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3547427628150894</v>
+        <v>0.3531572424800461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3848142860773864</v>
+        <v>0.3841708387638685</v>
       </c>
     </row>
     <row r="14">
@@ -3580,19 +3580,19 @@
         <v>311647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>277468</v>
+        <v>278955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343854</v>
+        <v>344315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1536894490143494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1368343634622784</v>
+        <v>0.1375677019166412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.16957266701275</v>
+        <v>0.1698000062944156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -3601,19 +3601,19 @@
         <v>335570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302726</v>
+        <v>303298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366661</v>
+        <v>371853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1716720989842619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1548697281969044</v>
+        <v>0.1551624529680314</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1875777412863927</v>
+        <v>0.190234136268555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>617</v>
@@ -3622,19 +3622,19 @@
         <v>647216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>601252</v>
+        <v>596629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>695103</v>
+        <v>693313</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1625158382539683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1509742629742994</v>
+        <v>0.1498133927101316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1745400233868919</v>
+        <v>0.1740907417118153</v>
       </c>
     </row>
     <row r="15">
@@ -3651,19 +3651,19 @@
         <v>63282</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49093</v>
+        <v>48747</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>80362</v>
+        <v>80975</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03120754293324001</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02421035245527356</v>
+        <v>0.02403960525561629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03963070537281637</v>
+        <v>0.03993291263557643</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>82</v>
@@ -3672,19 +3672,19 @@
         <v>90705</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72480</v>
+        <v>73941</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>112470</v>
+        <v>111543</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04640320421130568</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03707960292115269</v>
+        <v>0.03782676576405807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05753769319484498</v>
+        <v>0.05706357529246198</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>141</v>
@@ -3693,19 +3693,19 @@
         <v>153987</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>129745</v>
+        <v>128975</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>179812</v>
+        <v>179499</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03866599991360827</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03257903223692592</v>
+        <v>0.03238551653094039</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0451506681721879</v>
+        <v>0.04507225912077921</v>
       </c>
     </row>
     <row r="16">
@@ -3844,19 +3844,19 @@
         <v>107478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88374</v>
+        <v>86461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128036</v>
+        <v>127402</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.19827381412609</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1630310525448045</v>
+        <v>0.1595016460645921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2361991345210923</v>
+        <v>0.2350306104632958</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -3865,19 +3865,19 @@
         <v>80754</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66247</v>
+        <v>64226</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99051</v>
+        <v>99608</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1493914268511358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1225531889882677</v>
+        <v>0.118814014937046</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1832397387675209</v>
+        <v>0.1842702522065431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>170</v>
@@ -3886,19 +3886,19 @@
         <v>188232</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>163113</v>
+        <v>162296</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217711</v>
+        <v>213562</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1738667282869619</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1506643513122493</v>
+        <v>0.1499099565749183</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2010959183550575</v>
+        <v>0.1972631862867899</v>
       </c>
     </row>
     <row r="19">
@@ -3915,19 +3915,19 @@
         <v>176601</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156699</v>
+        <v>153153</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200924</v>
+        <v>199366</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3257926542728704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2890762412986435</v>
+        <v>0.2825358526626143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3706629806151737</v>
+        <v>0.3677882190713947</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>170</v>
@@ -3936,19 +3936,19 @@
         <v>176676</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155372</v>
+        <v>155571</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199439</v>
+        <v>199166</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.326840869129197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.287430654406993</v>
+        <v>0.2877974541889385</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3689518012362629</v>
+        <v>0.3684463496092632</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>331</v>
@@ -3957,19 +3957,19 @@
         <v>353277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>320895</v>
+        <v>321665</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>386612</v>
+        <v>388475</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3263160303067025</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2964048471403777</v>
+        <v>0.2971165189393991</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3571063214441944</v>
+        <v>0.3588279638992253</v>
       </c>
     </row>
     <row r="20">
@@ -3986,19 +3986,19 @@
         <v>172746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149246</v>
+        <v>149566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197156</v>
+        <v>193591</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3186803284130372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.275327113013765</v>
+        <v>0.2759184149384315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3637118252821226</v>
+        <v>0.3571353593868669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -4007,19 +4007,19 @@
         <v>183123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162335</v>
+        <v>161367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207106</v>
+        <v>206086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3387670664917976</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.300311496608876</v>
+        <v>0.2985208361807864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3831349080809639</v>
+        <v>0.3812480924374118</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -4028,19 +4028,19 @@
         <v>355869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>325547</v>
+        <v>323151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386767</v>
+        <v>389089</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3287096818846419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3007018893313454</v>
+        <v>0.2984885437441364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3572502423424923</v>
+        <v>0.3593945094477435</v>
       </c>
     </row>
     <row r="21">
@@ -4057,19 +4057,19 @@
         <v>75137</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57878</v>
+        <v>59129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93981</v>
+        <v>94013</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1386122591467634</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1067734520382523</v>
+        <v>0.1090807483438283</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1733759901691585</v>
+        <v>0.1734343963474074</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>81</v>
@@ -4078,19 +4078,19 @@
         <v>86047</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69093</v>
+        <v>70523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>103836</v>
+        <v>104999</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1591824754624017</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1278184913511287</v>
+        <v>0.1304631935552975</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1920902309924856</v>
+        <v>0.1942427975860504</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>147</v>
@@ -4099,19 +4099,19 @@
         <v>161184</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>138876</v>
+        <v>139223</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>185063</v>
+        <v>187768</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1488830143887533</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1282772727798143</v>
+        <v>0.1285974315909656</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1709396905400344</v>
+        <v>0.1734377979075169</v>
       </c>
     </row>
     <row r="22">
@@ -4128,19 +4128,19 @@
         <v>10105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5091</v>
+        <v>5289</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17648</v>
+        <v>18489</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01864094404123903</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009392738707193971</v>
+        <v>0.009756373714884196</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03255643301925059</v>
+        <v>0.03410908020364789</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4149,19 +4149,19 @@
         <v>13956</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8013</v>
+        <v>7854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22936</v>
+        <v>23064</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02581816206546796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01482324111291569</v>
+        <v>0.01452981581278046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04243007973095123</v>
+        <v>0.04266764265666425</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -4170,19 +4170,19 @@
         <v>24061</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15670</v>
+        <v>15807</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35955</v>
+        <v>34991</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02222454513294037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01447365260991122</v>
+        <v>0.01460037028179876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03321135218455487</v>
+        <v>0.03232080568816222</v>
       </c>
     </row>
     <row r="23">
@@ -4321,19 +4321,19 @@
         <v>560526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>515909</v>
+        <v>518986</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>603809</v>
+        <v>608837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1695935782725694</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1560942253298657</v>
+        <v>0.1570253417101046</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1826894854710518</v>
+        <v>0.1842108405972002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>400</v>
@@ -4342,19 +4342,19 @@
         <v>419966</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>380992</v>
+        <v>383345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>462569</v>
+        <v>459380</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1208940425075947</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1096747201114777</v>
+        <v>0.1103521460878581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1331579779286528</v>
+        <v>0.1322399367207536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>918</v>
@@ -4363,19 +4363,19 @@
         <v>980492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>924045</v>
+        <v>921515</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1043400</v>
+        <v>1047080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1446377545690362</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1363109672399644</v>
+        <v>0.1359377978083254</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1539177005857309</v>
+        <v>0.154460539385387</v>
       </c>
     </row>
     <row r="26">
@@ -4392,19 +4392,19 @@
         <v>911535</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>859959</v>
+        <v>858451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>965415</v>
+        <v>966243</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2757956418230412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2601904319394317</v>
+        <v>0.2597344498916831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2920975323981431</v>
+        <v>0.2923480675330941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>906</v>
@@ -4413,19 +4413,19 @@
         <v>959454</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>908113</v>
+        <v>905711</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1012004</v>
+        <v>1016215</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2761943899615835</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2614149035132531</v>
+        <v>0.2607236339253866</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2913215557771994</v>
+        <v>0.2925338150825443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1775</v>
@@ -4434,19 +4434,19 @@
         <v>1870990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1798882</v>
+        <v>1800262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1947195</v>
+        <v>1944534</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2759999782318234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2653629287606309</v>
+        <v>0.2655664900894336</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2872414240876605</v>
+        <v>0.2868488443720543</v>
       </c>
     </row>
     <row r="27">
@@ -4463,19 +4463,19 @@
         <v>1139390</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1088304</v>
+        <v>1082268</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1194908</v>
+        <v>1196849</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3447358104063575</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3292789014996123</v>
+        <v>0.3274528953597817</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3615333661055257</v>
+        <v>0.3621205467511047</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1180</v>
@@ -4484,19 +4484,19 @@
         <v>1247694</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1188924</v>
+        <v>1190882</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1302237</v>
+        <v>1302582</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3591688796426444</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3422509962195564</v>
+        <v>0.3428145645427092</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3748698665857675</v>
+        <v>0.3749692369752672</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2275</v>
@@ -4505,19 +4505,19 @@
         <v>2387085</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2302803</v>
+        <v>2309150</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2458645</v>
+        <v>2466328</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3521319616366269</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3396991198077202</v>
+        <v>0.3406354066343259</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3626882052878461</v>
+        <v>0.3638216176074842</v>
       </c>
     </row>
     <row r="28">
@@ -4534,19 +4534,19 @@
         <v>562364</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>521894</v>
+        <v>518489</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>605421</v>
+        <v>607323</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1701497745386174</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1579052010483357</v>
+        <v>0.1568747143572292</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1831771548354644</v>
+        <v>0.1837526103140306</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>628</v>
@@ -4555,19 +4555,19 @@
         <v>671786</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>622288</v>
+        <v>623659</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>721085</v>
+        <v>720311</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1933844020678312</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1791355205371296</v>
+        <v>0.1795302158680024</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2075760464711894</v>
+        <v>0.2073531553272059</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1163</v>
@@ -4576,19 +4576,19 @@
         <v>1234150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1165559</v>
+        <v>1167707</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1295359</v>
+        <v>1299414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1820562385187802</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1719379943124944</v>
+        <v>0.1722548397544945</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1910854874439444</v>
+        <v>0.1916836855870107</v>
       </c>
     </row>
     <row r="29">
@@ -4605,19 +4605,19 @@
         <v>131296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>109402</v>
+        <v>108987</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>154577</v>
+        <v>154137</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03972519495941444</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03310093191040605</v>
+        <v>0.03297541250649394</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04676896268035782</v>
+        <v>0.04663595207345124</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>157</v>
@@ -4626,19 +4626,19 @@
         <v>174936</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>150086</v>
+        <v>149528</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>203271</v>
+        <v>203850</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0503582858203462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04320468731254987</v>
+        <v>0.04304396272688819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05851490098582188</v>
+        <v>0.05868149173622036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>287</v>
@@ -4647,19 +4647,19 @@
         <v>306233</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>272087</v>
+        <v>269064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>343449</v>
+        <v>338753</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0451740670437334</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0401371089996892</v>
+        <v>0.03969115864633568</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05066403261216065</v>
+        <v>0.0499712605426403</v>
       </c>
     </row>
     <row r="30">
@@ -5037,19 +5037,19 @@
         <v>142199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120775</v>
+        <v>122329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164253</v>
+        <v>163013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2491184001383292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2115857743592215</v>
+        <v>0.2143077162116817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2877556181071141</v>
+        <v>0.2855820213570348</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -5058,19 +5058,19 @@
         <v>134112</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117702</v>
+        <v>117416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150298</v>
+        <v>150499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1657992981887268</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1455117918708929</v>
+        <v>0.145158397689219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1858094318096706</v>
+        <v>0.1860582682480011</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -5079,19 +5079,19 @@
         <v>276311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250837</v>
+        <v>249913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303780</v>
+        <v>304766</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2002702491487348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1818066036114334</v>
+        <v>0.1811366159120598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2201796771075863</v>
+        <v>0.2208942224923132</v>
       </c>
     </row>
     <row r="5">
@@ -5108,19 +5108,19 @@
         <v>167793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148007</v>
+        <v>148888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189443</v>
+        <v>188314</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2939558344108166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.259292740439348</v>
+        <v>0.2608364059904136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3318849544898121</v>
+        <v>0.3299073839693072</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -5129,19 +5129,19 @@
         <v>277097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256822</v>
+        <v>255921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298688</v>
+        <v>296810</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3425684773079811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3175029129801571</v>
+        <v>0.3163886646230663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3692603511838219</v>
+        <v>0.3669385322023425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>696</v>
@@ -5150,19 +5150,19 @@
         <v>444890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414902</v>
+        <v>417143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>475100</v>
+        <v>478624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3224563542757605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3007212911584947</v>
+        <v>0.3023453750330707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3443527217866145</v>
+        <v>0.3469069077062366</v>
       </c>
     </row>
     <row r="6">
@@ -5179,19 +5179,19 @@
         <v>165768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>146225</v>
+        <v>145923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>187940</v>
+        <v>185951</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2904082774422328</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2561711914869827</v>
+        <v>0.2556424342839624</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3292514658302423</v>
+        <v>0.3257675916938738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>433</v>
@@ -5200,19 +5200,19 @@
         <v>253768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>232246</v>
+        <v>233484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>274055</v>
+        <v>273925</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3137267002918258</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.287119555464488</v>
+        <v>0.2886501657316458</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3388073600819771</v>
+        <v>0.3386459910341093</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>639</v>
@@ -5221,19 +5221,19 @@
         <v>419536</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>389624</v>
+        <v>389712</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>448246</v>
+        <v>449088</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3040793542246628</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2823993782002173</v>
+        <v>0.2824632860794206</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.32488835318222</v>
+        <v>0.3254989326828333</v>
       </c>
     </row>
     <row r="7">
@@ -5250,19 +5250,19 @@
         <v>74154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59644</v>
+        <v>61004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91073</v>
+        <v>91159</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1299097690575473</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1044905524660412</v>
+        <v>0.1068732973843658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1595510052638097</v>
+        <v>0.1597011746023987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -5271,19 +5271,19 @@
         <v>108470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93614</v>
+        <v>93098</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124912</v>
+        <v>124156</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.134098712229809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1157326250936261</v>
+        <v>0.115094786367612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1544249349344556</v>
+        <v>0.1534911274951591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -5292,19 +5292,19 @@
         <v>182624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162703</v>
+        <v>163312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206022</v>
+        <v>203710</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1323656540080265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1179269183062937</v>
+        <v>0.1183688380998396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1493249732232755</v>
+        <v>0.1476493378586548</v>
       </c>
     </row>
     <row r="8">
@@ -5321,19 +5321,19 @@
         <v>17796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11593</v>
+        <v>11568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26019</v>
+        <v>25907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03117742694353107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02030985061710802</v>
+        <v>0.02026555267075378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0455834718087805</v>
+        <v>0.04538730060680189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -5342,19 +5342,19 @@
         <v>31117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23742</v>
+        <v>23893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41921</v>
+        <v>41331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03846875407406115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02935196481343732</v>
+        <v>0.02953797202000913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0518252751138298</v>
+        <v>0.05109584459214223</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -5363,19 +5363,19 @@
         <v>48913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38904</v>
+        <v>39335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61216</v>
+        <v>61653</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03545217115287332</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02819742420392328</v>
+        <v>0.02851006169173632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04436906269564822</v>
+        <v>0.04468606705972315</v>
       </c>
     </row>
     <row r="9">
@@ -5392,19 +5392,19 @@
         <v>3100</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8589</v>
+        <v>9616</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005430292007542961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001467074013631229</v>
+        <v>0.001474406825316781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01504683600541955</v>
+        <v>0.01684585564101786</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -5413,19 +5413,19 @@
         <v>4318</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1764</v>
+        <v>2003</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8704</v>
+        <v>9294</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005338057907596066</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002181213640188131</v>
+        <v>0.002475993688272939</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01076017266147593</v>
+        <v>0.01148979033165313</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -5434,19 +5434,19 @@
         <v>7418</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3672</v>
+        <v>3677</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14074</v>
+        <v>13627</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005376217189942064</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002661129207772104</v>
+        <v>0.002664851660486773</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01020074729547176</v>
+        <v>0.009876611807957097</v>
       </c>
     </row>
     <row r="10">
@@ -5538,19 +5538,19 @@
         <v>690440</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638665</v>
+        <v>634223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743662</v>
+        <v>741533</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.310258427879899</v>
+        <v>0.3102584278798991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2869924211052932</v>
+        <v>0.284996221794488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.334174069527247</v>
+        <v>0.3332174738247017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>622</v>
@@ -5559,19 +5559,19 @@
         <v>473702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437348</v>
+        <v>437853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>510905</v>
+        <v>507033</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2191472259339322</v>
+        <v>0.2191472259339321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2023290162047929</v>
+        <v>0.2025628758028152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2363583321807251</v>
+        <v>0.2345673523232036</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1184</v>
@@ -5580,19 +5580,19 @@
         <v>1164142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1105380</v>
+        <v>1098394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1231285</v>
+        <v>1229220</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2653653874639953</v>
+        <v>0.2653653874639952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2519705204686655</v>
+        <v>0.2503782192362651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2806704849686679</v>
+        <v>0.2801998322865875</v>
       </c>
     </row>
     <row r="12">
@@ -5609,19 +5609,19 @@
         <v>794065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>742016</v>
+        <v>744062</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>843377</v>
+        <v>851218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3568235101829482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3334346996242948</v>
+        <v>0.3343542028699165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3789826554229662</v>
+        <v>0.3825058117435423</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1042</v>
@@ -5630,19 +5630,19 @@
         <v>774852</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>730525</v>
+        <v>734351</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>818755</v>
+        <v>818705</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3584675263592393</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3379606209639989</v>
+        <v>0.3397306890956391</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3787781954544159</v>
+        <v>0.3787549469584132</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1768</v>
@@ -5651,19 +5651,19 @@
         <v>1568917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1507344</v>
+        <v>1498706</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1635851</v>
+        <v>1635795</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3576335629873269</v>
+        <v>0.3576335629873268</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3435980540336428</v>
+        <v>0.3416289289432171</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3728911832342193</v>
+        <v>0.3728783388798174</v>
       </c>
     </row>
     <row r="13">
@@ -5680,19 +5680,19 @@
         <v>555514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>513417</v>
+        <v>510522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>603213</v>
+        <v>605221</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.249627641258184</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2307107455285062</v>
+        <v>0.2294096347898013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2710615865467256</v>
+        <v>0.2719641443154746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>801</v>
@@ -5701,19 +5701,19 @@
         <v>578660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>542849</v>
+        <v>542592</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>616993</v>
+        <v>619489</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2677039527743327</v>
+        <v>0.2677039527743328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.251136467389501</v>
+        <v>0.2510176841468889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2854376861298352</v>
+        <v>0.2865926184253474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1325</v>
@@ -5722,19 +5722,19 @@
         <v>1134175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1080587</v>
+        <v>1075220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1205334</v>
+        <v>1196666</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2585343460994416</v>
+        <v>0.2585343460994415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.246319047699937</v>
+        <v>0.2450955690283335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2747551326694275</v>
+        <v>0.2727792150401944</v>
       </c>
     </row>
     <row r="14">
@@ -5751,19 +5751,19 @@
         <v>148094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122999</v>
+        <v>126093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175836</v>
+        <v>178846</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06654793759875464</v>
+        <v>0.06654793759875463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05527112512491293</v>
+        <v>0.05666152731315869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07901439665494109</v>
+        <v>0.08036658334795729</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -5772,19 +5772,19 @@
         <v>261654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233762</v>
+        <v>234131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294274</v>
+        <v>293987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1210484176508058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1081446037188364</v>
+        <v>0.1083151618740621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1361389831344509</v>
+        <v>0.136006587786662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>490</v>
@@ -5793,19 +5793,19 @@
         <v>409748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372222</v>
+        <v>373248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>452858</v>
+        <v>453894</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09340185019573585</v>
+        <v>0.09340185019573581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08484776150935287</v>
+        <v>0.08508163915654889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1032287749236074</v>
+        <v>0.1034647260280354</v>
       </c>
     </row>
     <row r="15">
@@ -5822,19 +5822,19 @@
         <v>33014</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23542</v>
+        <v>22009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>46434</v>
+        <v>46733</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01483543651089314</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01057877489100189</v>
+        <v>0.009889911482550416</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02086585150415581</v>
+        <v>0.02100017667472885</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>87</v>
@@ -5843,19 +5843,19 @@
         <v>67945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53055</v>
+        <v>52559</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85946</v>
+        <v>85049</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03143303149704458</v>
+        <v>0.03143303149704459</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02454464297678315</v>
+        <v>0.02431521696934735</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03976086328892932</v>
+        <v>0.03934591502928778</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>121</v>
@@ -5864,19 +5864,19 @@
         <v>100959</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83402</v>
+        <v>83297</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>123305</v>
+        <v>122347</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02301353631207882</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01901143159244668</v>
+        <v>0.01898760501753217</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02810737488141535</v>
+        <v>0.02788891222543924</v>
       </c>
     </row>
     <row r="16">
@@ -5893,19 +5893,19 @@
         <v>4244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1391</v>
+        <v>1584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9671</v>
+        <v>9673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001907046569320868</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006251209021249567</v>
+        <v>0.0007118356620178718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004345938054957037</v>
+        <v>0.004346470754671754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5914,19 +5914,19 @@
         <v>4755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1797</v>
+        <v>1855</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10320</v>
+        <v>10101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002199845784645227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0008312305847102006</v>
+        <v>0.0008582863266666743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00477431941476123</v>
+        <v>0.004673048353628799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5935,19 +5935,19 @@
         <v>8999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4235</v>
+        <v>4604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16298</v>
+        <v>16168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00205131694142173</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0009654516291686544</v>
+        <v>0.001049389182061624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003715119181615077</v>
+        <v>0.003685408415172692</v>
       </c>
     </row>
     <row r="17">
@@ -6039,19 +6039,19 @@
         <v>223509</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195848</v>
+        <v>196946</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>251504</v>
+        <v>253350</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3148579398209135</v>
+        <v>0.3148579398209136</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2758921339063014</v>
+        <v>0.2774386911498775</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.354296041886017</v>
+        <v>0.3568962936958514</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>231</v>
@@ -6060,19 +6060,19 @@
         <v>178539</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>156441</v>
+        <v>155191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>197078</v>
+        <v>197964</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2429504326440289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.212880465528357</v>
+        <v>0.2111801363398231</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2681784299048698</v>
+        <v>0.2693831801077891</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>420</v>
@@ -6081,19 +6081,19 @@
         <v>402047</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>370677</v>
+        <v>365420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>439944</v>
+        <v>435936</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2782818771677452</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2565682821100986</v>
+        <v>0.2529298155527486</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3045124402497468</v>
+        <v>0.3017382660815603</v>
       </c>
     </row>
     <row r="19">
@@ -6110,19 +6110,19 @@
         <v>265449</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>240368</v>
+        <v>237425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>294246</v>
+        <v>292206</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3739395382659635</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3386078996217829</v>
+        <v>0.33446189840566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4145060034112437</v>
+        <v>0.4116320536005034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>353</v>
@@ -6131,19 +6131,19 @@
         <v>251449</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>230548</v>
+        <v>229388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>275962</v>
+        <v>276731</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3421643598098886</v>
+        <v>0.3421643598098887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3137236378874666</v>
+        <v>0.3121452412251446</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3755220187575608</v>
+        <v>0.3765675958857811</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>619</v>
@@ -6152,19 +6152,19 @@
         <v>516898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>482427</v>
+        <v>481335</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>554216</v>
+        <v>554396</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.357776957143994</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3339176696960648</v>
+        <v>0.3331621703591437</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3836073945169298</v>
+        <v>0.3837318111200504</v>
       </c>
     </row>
     <row r="20">
@@ -6181,19 +6181,19 @@
         <v>162558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141314</v>
+        <v>139896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>187409</v>
+        <v>186000</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2289963820877886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1990694541294663</v>
+        <v>0.1970720907333557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2640047550433657</v>
+        <v>0.2620194545587169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>277</v>
@@ -6202,19 +6202,19 @@
         <v>196670</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176858</v>
+        <v>174901</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217993</v>
+        <v>220423</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2676233584530793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2406637808511574</v>
+        <v>0.2380004922011973</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2966388177841667</v>
+        <v>0.2999455842393506</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>440</v>
@@ -6223,19 +6223,19 @@
         <v>359228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>328026</v>
+        <v>325876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>390734</v>
+        <v>391420</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2486441596719001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2270475265850997</v>
+        <v>0.2255589716181644</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2704514429028695</v>
+        <v>0.2709262320626457</v>
       </c>
     </row>
     <row r="21">
@@ -6252,19 +6252,19 @@
         <v>47897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34830</v>
+        <v>35892</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62955</v>
+        <v>64125</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06747299955644316</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04906568646799914</v>
+        <v>0.05056132301271341</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.088685829313902</v>
+        <v>0.09033335364014466</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>113</v>
@@ -6273,19 +6273,19 @@
         <v>86546</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72106</v>
+        <v>72582</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>104305</v>
+        <v>104657</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1177692540097178</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09811919561383445</v>
+        <v>0.09876740974907922</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1419356301665853</v>
+        <v>0.1424146352638951</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -6294,19 +6294,19 @@
         <v>134443</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>112673</v>
+        <v>114032</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>157395</v>
+        <v>158378</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09305640560579162</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07798823903098444</v>
+        <v>0.07892884255160861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1089427208800306</v>
+        <v>0.1096234534324644</v>
       </c>
     </row>
     <row r="22">
@@ -6323,19 +6323,19 @@
         <v>7679</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3472</v>
+        <v>3675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14356</v>
+        <v>13862</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01081791361534719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004891088281119738</v>
+        <v>0.005176532799502124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02022300652971356</v>
+        <v>0.01952800018534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -6344,19 +6344,19 @@
         <v>18904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12877</v>
+        <v>12018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29738</v>
+        <v>28980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0257245039671152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01752240740182674</v>
+        <v>0.01635381681673212</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04046649341217941</v>
+        <v>0.03943556127261798</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -6365,19 +6365,19 @@
         <v>26584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18208</v>
+        <v>18349</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37756</v>
+        <v>36897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01840021488064054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01260294456720178</v>
+        <v>0.01270077052665129</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02613294124083413</v>
+        <v>0.02553860586423876</v>
       </c>
     </row>
     <row r="23">
@@ -6397,16 +6397,16 @@
         <v>856</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8501</v>
+        <v>7839</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003915226653543873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001206184823381917</v>
+        <v>0.001206431477654148</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01197480863499962</v>
+        <v>0.01104221394094645</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6415,19 +6415,19 @@
         <v>2769</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6660</v>
+        <v>7101</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003768091116170002</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001015697733115998</v>
+        <v>0.001041919255586897</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.00906298442435906</v>
+        <v>0.009662209235631835</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -6436,19 +6436,19 @@
         <v>5548</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2534</v>
+        <v>2554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12042</v>
+        <v>12227</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00384038552992856</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001753921416431499</v>
+        <v>0.001767808164942133</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008335095020306438</v>
+        <v>0.008463001697920835</v>
       </c>
     </row>
     <row r="24">
@@ -6540,19 +6540,19 @@
         <v>1056148</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>995453</v>
+        <v>990416</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1117491</v>
+        <v>1116600</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3012356854760654</v>
+        <v>0.3012356854760655</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2839242155094174</v>
+        <v>0.2824875937085285</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3187320720137791</v>
+        <v>0.3184779534640912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1086</v>
@@ -6561,19 +6561,19 @@
         <v>786353</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>742378</v>
+        <v>746456</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>831354</v>
+        <v>828804</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2122221266203212</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2003541029593894</v>
+        <v>0.2014547738118142</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2243673130371181</v>
+        <v>0.2236791055354477</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1988</v>
@@ -6582,19 +6582,19 @@
         <v>1842500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1768504</v>
+        <v>1767920</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1920204</v>
+        <v>1924753</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2554990213704487</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2452379824759194</v>
+        <v>0.2451569382964521</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2662742350517925</v>
+        <v>0.2669049408599927</v>
       </c>
     </row>
     <row r="26">
@@ -6611,19 +6611,19 @@
         <v>1227306</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1160471</v>
+        <v>1165752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1287976</v>
+        <v>1293468</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3500537162868697</v>
+        <v>0.3500537162868698</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3309907827383283</v>
+        <v>0.3324971391398738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3673579622130747</v>
+        <v>0.3689244841968548</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1888</v>
@@ -6632,19 +6632,19 @@
         <v>1303398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1249370</v>
+        <v>1253377</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1356892</v>
+        <v>1358857</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3517633182616946</v>
+        <v>0.3517633182616947</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3371819780052984</v>
+        <v>0.3382635617860626</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3662003183250296</v>
+        <v>0.3667305404230906</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3083</v>
@@ -6653,19 +6653,19 @@
         <v>2530705</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2459704</v>
+        <v>2453522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2612402</v>
+        <v>2609699</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3509321385439058</v>
+        <v>0.3509321385439056</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3410865562192824</v>
+        <v>0.3402291757183473</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3622610622224992</v>
+        <v>0.3618862353389843</v>
       </c>
     </row>
     <row r="27">
@@ -6682,19 +6682,19 @@
         <v>883840</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>824846</v>
+        <v>834206</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>939243</v>
+        <v>946253</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2520897875974162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2352634566526266</v>
+        <v>0.237933129403145</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2678921353405943</v>
+        <v>0.2698913198944279</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1511</v>
@@ -6703,19 +6703,19 @@
         <v>1029099</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>983238</v>
+        <v>979190</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1074353</v>
+        <v>1077483</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2777348503880447</v>
+        <v>0.2777348503880446</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2653579479279077</v>
+        <v>0.2642653369257048</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2899480444071887</v>
+        <v>0.2907927920093692</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2404</v>
@@ -6724,19 +6724,19 @@
         <v>1912938</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1838061</v>
+        <v>1838635</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1987355</v>
+        <v>1982216</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2652666523121869</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2548833813370963</v>
+        <v>0.2549630854850748</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2755860304133949</v>
+        <v>0.2748733828274078</v>
       </c>
     </row>
     <row r="28">
@@ -6753,19 +6753,19 @@
         <v>270145</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>237583</v>
+        <v>239084</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>302019</v>
+        <v>307131</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.077050965975217</v>
+        <v>0.07705096597521702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06776383865349955</v>
+        <v>0.06819189280504626</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08614208792844151</v>
+        <v>0.08760013078004121</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>647</v>
@@ -6774,19 +6774,19 @@
         <v>456670</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>423403</v>
+        <v>421578</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>489912</v>
+        <v>492708</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1232469736419718</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1142688183118782</v>
+        <v>0.1137760763304052</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1322182557896608</v>
+        <v>0.1329728448991848</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>927</v>
@@ -6795,19 +6795,19 @@
         <v>726815</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>674769</v>
+        <v>680799</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>775196</v>
+        <v>774030</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1007872519167662</v>
+        <v>0.1007872519167661</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09357000867686335</v>
+        <v>0.09440617505223618</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1074961895711945</v>
+        <v>0.1073345801122456</v>
       </c>
     </row>
     <row r="29">
@@ -6824,19 +6824,19 @@
         <v>58490</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>45331</v>
+        <v>45492</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>75683</v>
+        <v>75453</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01668259354979974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01292935736202351</v>
+        <v>0.01297534288242821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0215863418088443</v>
+        <v>0.02152068072259721</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>164</v>
@@ -6845,19 +6845,19 @@
         <v>117966</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>99556</v>
+        <v>99209</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>140151</v>
+        <v>138112</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03183677572231027</v>
+        <v>0.03183677572231026</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02686844390233636</v>
+        <v>0.02677478881343942</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03782417143310882</v>
+        <v>0.03727385312930634</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>231</v>
@@ -6866,19 +6866,19 @@
         <v>176456</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>152270</v>
+        <v>154836</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>201392</v>
+        <v>202326</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02446906730423846</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02111517923251111</v>
+        <v>0.02147100999896031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02792696216200855</v>
+        <v>0.02805648828419741</v>
       </c>
     </row>
     <row r="30">
@@ -6895,19 +6895,19 @@
         <v>10123</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5100</v>
+        <v>4811</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18272</v>
+        <v>17900</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.002887251114631891</v>
+        <v>0.002887251114631892</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001454623754653961</v>
+        <v>0.001372158829576176</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.005211602753448957</v>
+        <v>0.005105371891649432</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -6916,19 +6916,19 @@
         <v>11842</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7108</v>
+        <v>6977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18809</v>
+        <v>18994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003195955365657531</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001918344382949699</v>
+        <v>0.001882930050093808</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.005076321205100816</v>
+        <v>0.005126085098466863</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -6937,19 +6937,19 @@
         <v>21965</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14743</v>
+        <v>14627</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31644</v>
+        <v>30961</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.003045868552454114</v>
+        <v>0.003045868552454113</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002044379184917935</v>
+        <v>0.002028390124853945</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00438801737538799</v>
+        <v>0.004293329636175351</v>
       </c>
     </row>
     <row r="31">
